--- a/Overview implementations.xlsx
+++ b/Overview implementations.xlsx
@@ -337,7 +337,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -345,15 +345,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -673,7 +671,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,12 +683,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="4" t="s">
         <v>81</v>
       </c>
@@ -699,156 +697,153 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
@@ -856,24 +851,24 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9">
-        <v>2</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -889,24 +884,24 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1319,145 +1314,145 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7" t="s">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7" t="s">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7">
-        <v>1</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7" t="s">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6">
+        <v>1</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7">
-        <v>2</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6">
+        <v>2</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7" t="s">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7" t="s">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7">
-        <v>1</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7" t="s">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6">
+        <v>1</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7">
-        <v>2</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
+      <c r="A79" s="5"/>
+      <c r="B79" s="6">
+        <v>2</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7">
-        <v>3</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7" t="s">
+      <c r="A80" s="5"/>
+      <c r="B80" s="6">
+        <v>3</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7" t="s">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7">
-        <v>1</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7" t="s">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6">
+        <v>1</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7">
-        <v>2</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7" t="s">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6">
+        <v>2</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7">
-        <v>3</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7" t="s">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6">
+        <v>3</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Overview implementations.xlsx
+++ b/Overview implementations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>2</t>
   </si>
@@ -276,6 +276,21 @@
   </si>
   <si>
     <t>send advertisements at rate 1/3rd of lifetime in icmp header or faster</t>
+  </si>
+  <si>
+    <t>Set routing table to home network , then deregister the old CareOfAddress</t>
+  </si>
+  <si>
+    <t>check if R-bit (15) set to 1, if so, register with FA, else discard</t>
+  </si>
+  <si>
+    <t>only generate request packet if new sequence number &lt; old sequence number and new sequence number &lt; 255</t>
+  </si>
+  <si>
+    <t>start timer when receiving advertisement, restart timer when receiving another advertisement, send solicitation when timer runs out</t>
+  </si>
+  <si>
+    <t>when FA/HA receive solicitation, send advertisement</t>
   </si>
 </sst>
 </file>
@@ -670,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>2</v>
@@ -872,7 +887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3">
         <v>3</v>
@@ -882,8 +897,11 @@
       <c r="E18" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8">
@@ -894,7 +912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8">
@@ -905,7 +923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>4</v>
       </c>
@@ -913,15 +931,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>2</v>
       </c>
@@ -929,31 +950,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>4</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -961,7 +991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1</v>
       </c>
@@ -969,7 +999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>3</v>
       </c>
@@ -977,7 +1007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>4</v>
       </c>
@@ -985,7 +1015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>6</v>
       </c>
@@ -993,7 +1023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>1</v>
       </c>
